--- a/dados_nota.xlsx
+++ b/dados_nota.xlsx
@@ -416,8 +416,10 @@
       <c r="B2">
         <v>32</v>
       </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D2">
         <v>7.6</v>
@@ -448,8 +450,10 @@
       <c r="B3">
         <v>31</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D3">
         <v>9.4</v>
@@ -480,8 +484,10 @@
       <c r="B4">
         <v>20</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D4">
         <v>8.699999999999999</v>
@@ -512,9 +518,6 @@
       <c r="B5">
         <v>27</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
         <v>8.1</v>
       </c>
@@ -544,8 +547,10 @@
       <c r="B6">
         <v>35</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D6">
         <v>6.5</v>
@@ -576,8 +581,10 @@
       <c r="B7">
         <v>28</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D7">
         <v>8</v>
@@ -608,8 +615,10 @@
       <c r="B8">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D8">
         <v>7.7</v>
@@ -625,9 +634,6 @@
       </c>
       <c r="H8">
         <v>3.7</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
       </c>
       <c r="J8">
         <v>7.05</v>
@@ -640,8 +646,10 @@
       <c r="B9">
         <v>31</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D9">
         <v>7.9</v>
@@ -672,8 +680,10 @@
       <c r="B10">
         <v>22</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D10">
         <v>6.8</v>
@@ -704,8 +714,10 @@
       <c r="B11">
         <v>26</v>
       </c>
-      <c r="C11">
-        <v>2</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D11">
         <v>8.5</v>
@@ -736,8 +748,10 @@
       <c r="B12">
         <v>20</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D12">
         <v>7</v>
@@ -768,8 +782,10 @@
       <c r="B13">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D13">
         <v>7.8</v>
@@ -800,9 +816,6 @@
       <c r="B14">
         <v>24</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
       <c r="D14">
         <v>8.4</v>
       </c>
@@ -829,11 +842,10 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D15">
         <v>7.2</v>
@@ -864,8 +876,10 @@
       <c r="B16">
         <v>26</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D16">
         <v>8.6</v>
@@ -896,8 +910,10 @@
       <c r="B17">
         <v>21</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D17">
         <v>6.7</v>
@@ -913,9 +929,6 @@
       </c>
       <c r="H17">
         <v>5.3</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
       </c>
       <c r="J17">
         <v>5.28</v>
@@ -928,8 +941,10 @@
       <c r="B18">
         <v>31</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D18">
         <v>5.2</v>
@@ -960,8 +975,10 @@
       <c r="B19">
         <v>34</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D19">
         <v>8.5</v>
@@ -992,8 +1009,10 @@
       <c r="B20">
         <v>28</v>
       </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D20">
         <v>8.800000000000001</v>
@@ -1024,8 +1043,10 @@
       <c r="B21">
         <v>24</v>
       </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D21">
         <v>7.7</v>
@@ -1056,8 +1077,10 @@
       <c r="B22">
         <v>29</v>
       </c>
-      <c r="C22">
-        <v>2</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D22">
         <v>8.5</v>
@@ -1088,8 +1111,10 @@
       <c r="B23">
         <v>32</v>
       </c>
-      <c r="C23">
-        <v>2</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D23">
         <v>6.8</v>
@@ -1120,8 +1145,10 @@
       <c r="B24">
         <v>27</v>
       </c>
-      <c r="C24">
-        <v>2</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D24">
         <v>7.9</v>
@@ -1137,9 +1164,6 @@
       </c>
       <c r="H24">
         <v>6.7</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
       </c>
       <c r="J24">
         <v>5.35</v>
@@ -1152,8 +1176,10 @@
       <c r="B25">
         <v>30</v>
       </c>
-      <c r="C25">
-        <v>2</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D25">
         <v>6.1</v>
@@ -1184,9 +1210,6 @@
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
       <c r="D26">
         <v>9.199999999999999</v>
       </c>
@@ -1216,8 +1239,10 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27">
-        <v>2</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D27">
         <v>9.9</v>
@@ -1233,9 +1258,6 @@
       </c>
       <c r="H27">
         <v>6.6</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
       </c>
       <c r="J27">
         <v>6.95</v>
@@ -1248,8 +1270,10 @@
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D28">
         <v>9.1</v>
@@ -1280,8 +1304,10 @@
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D29">
         <v>8</v>
@@ -1312,8 +1338,10 @@
       <c r="B30">
         <v>24</v>
       </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D30">
         <v>8</v>
@@ -1344,8 +1372,10 @@
       <c r="B31">
         <v>23</v>
       </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D31">
         <v>6.5</v>
@@ -1376,8 +1406,10 @@
       <c r="B32">
         <v>19</v>
       </c>
-      <c r="C32">
-        <v>2</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D32">
         <v>8.800000000000001</v>
@@ -1408,8 +1440,10 @@
       <c r="B33">
         <v>22</v>
       </c>
-      <c r="C33">
-        <v>2</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D33">
         <v>7.8</v>
@@ -1425,9 +1459,6 @@
       </c>
       <c r="H33">
         <v>3.8</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
       </c>
       <c r="J33">
         <v>5.23</v>
@@ -1440,8 +1471,10 @@
       <c r="B34">
         <v>25</v>
       </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D34">
         <v>7.3</v>
@@ -1472,9 +1505,6 @@
       <c r="B35">
         <v>29</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
       <c r="D35">
         <v>6.6</v>
       </c>
@@ -1504,8 +1534,10 @@
       <c r="B36">
         <v>30</v>
       </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D36">
         <v>7.7</v>
@@ -1536,8 +1568,10 @@
       <c r="B37">
         <v>35</v>
       </c>
-      <c r="C37">
-        <v>2</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D37">
         <v>7.2</v>
@@ -1568,8 +1602,10 @@
       <c r="B38">
         <v>18</v>
       </c>
-      <c r="C38">
-        <v>2</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D38">
         <v>7.6</v>
@@ -1600,8 +1636,10 @@
       <c r="B39">
         <v>23</v>
       </c>
-      <c r="C39">
-        <v>1</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D39">
         <v>6.8</v>
@@ -1632,9 +1670,6 @@
       <c r="B40">
         <v>32</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
       <c r="D40">
         <v>9.699999999999999</v>
       </c>
@@ -1664,8 +1699,10 @@
       <c r="B41">
         <v>26</v>
       </c>
-      <c r="C41">
-        <v>1</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D41">
         <v>8</v>
@@ -1696,8 +1733,10 @@
       <c r="B42">
         <v>32</v>
       </c>
-      <c r="C42">
-        <v>1</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D42">
         <v>9.1</v>
@@ -1713,9 +1752,6 @@
       </c>
       <c r="H42">
         <v>4.4</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
       </c>
       <c r="J42">
         <v>6.15</v>
@@ -1728,8 +1764,10 @@
       <c r="B43">
         <v>33</v>
       </c>
-      <c r="C43">
-        <v>2</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D43">
         <v>5.4</v>
@@ -1760,8 +1798,10 @@
       <c r="B44">
         <v>23</v>
       </c>
-      <c r="C44">
-        <v>2</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D44">
         <v>7.5</v>
@@ -1777,9 +1817,6 @@
       </c>
       <c r="H44">
         <v>7.6</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
       </c>
       <c r="J44">
         <v>5.97</v>
@@ -1792,8 +1829,10 @@
       <c r="B45">
         <v>28</v>
       </c>
-      <c r="C45">
-        <v>1</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D45">
         <v>7.3</v>
@@ -1824,8 +1863,10 @@
       <c r="B46">
         <v>25</v>
       </c>
-      <c r="C46">
-        <v>1</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D46">
         <v>6.8</v>
@@ -1856,8 +1897,10 @@
       <c r="B47">
         <v>24</v>
       </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D47">
         <v>9.5</v>
@@ -1888,8 +1931,10 @@
       <c r="B48">
         <v>33</v>
       </c>
-      <c r="C48">
-        <v>2</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D48">
         <v>6.6</v>
@@ -1920,8 +1965,10 @@
       <c r="B49">
         <v>34</v>
       </c>
-      <c r="C49">
-        <v>1</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D49">
         <v>8.300000000000001</v>
@@ -1952,8 +1999,10 @@
       <c r="B50">
         <v>35</v>
       </c>
-      <c r="C50">
-        <v>1</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D50">
         <v>8.800000000000001</v>
@@ -1984,8 +2033,10 @@
       <c r="B51">
         <v>34</v>
       </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D51">
         <v>8.199999999999999</v>
@@ -2016,8 +2067,10 @@
       <c r="B52">
         <v>19</v>
       </c>
-      <c r="C52">
-        <v>1</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D52">
         <v>7.1</v>
@@ -2048,8 +2101,10 @@
       <c r="B53">
         <v>21</v>
       </c>
-      <c r="C53">
-        <v>1</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D53">
         <v>8.9</v>
@@ -2080,8 +2135,10 @@
       <c r="B54">
         <v>30</v>
       </c>
-      <c r="C54">
-        <v>1</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D54">
         <v>8.199999999999999</v>
@@ -2112,8 +2169,10 @@
       <c r="B55">
         <v>22</v>
       </c>
-      <c r="C55">
-        <v>1</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D55">
         <v>6.9</v>
@@ -2144,8 +2203,10 @@
       <c r="B56">
         <v>31</v>
       </c>
-      <c r="C56">
-        <v>1</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D56">
         <v>6.6</v>
@@ -2176,8 +2237,10 @@
       <c r="B57">
         <v>20</v>
       </c>
-      <c r="C57">
-        <v>1</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D57">
         <v>10.1</v>
@@ -2208,8 +2271,10 @@
       <c r="B58">
         <v>25</v>
       </c>
-      <c r="C58">
-        <v>1</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D58">
         <v>7.3</v>
@@ -2240,8 +2305,10 @@
       <c r="B59">
         <v>33</v>
       </c>
-      <c r="C59">
-        <v>2</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D59">
         <v>6.1</v>
@@ -2272,8 +2339,10 @@
       <c r="B60">
         <v>29</v>
       </c>
-      <c r="C60">
-        <v>1</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D60">
         <v>8.5</v>
@@ -2304,8 +2373,10 @@
       <c r="B61">
         <v>31</v>
       </c>
-      <c r="C61">
-        <v>1</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D61">
         <v>8.300000000000001</v>
@@ -2336,8 +2407,10 @@
       <c r="B62">
         <v>20</v>
       </c>
-      <c r="C62">
-        <v>2</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D62">
         <v>6.6</v>
@@ -2368,8 +2441,10 @@
       <c r="B63">
         <v>31</v>
       </c>
-      <c r="C63">
-        <v>2</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D63">
         <v>6.1</v>
@@ -2400,8 +2475,10 @@
       <c r="B64">
         <v>24</v>
       </c>
-      <c r="C64">
-        <v>1</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D64">
         <v>7.9</v>
@@ -2417,9 +2494,6 @@
       </c>
       <c r="H64">
         <v>4.4</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
       </c>
       <c r="J64">
         <v>7.33</v>
@@ -2432,8 +2506,10 @@
       <c r="B65">
         <v>20</v>
       </c>
-      <c r="C65">
-        <v>2</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D65">
         <v>9.1</v>
@@ -2464,8 +2540,10 @@
       <c r="B66">
         <v>32</v>
       </c>
-      <c r="C66">
-        <v>1</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D66">
         <v>8.6</v>
@@ -2496,8 +2574,10 @@
       <c r="B67">
         <v>22</v>
       </c>
-      <c r="C67">
-        <v>2</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D67">
         <v>7.5</v>
@@ -2528,8 +2608,10 @@
       <c r="B68">
         <v>25</v>
       </c>
-      <c r="C68">
-        <v>2</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D68">
         <v>7.2</v>
@@ -2560,8 +2642,10 @@
       <c r="B69">
         <v>27</v>
       </c>
-      <c r="C69">
-        <v>1</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D69">
         <v>8.300000000000001</v>
@@ -2592,9 +2676,6 @@
       <c r="B70">
         <v>35</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
       <c r="D70">
         <v>8.199999999999999</v>
       </c>
@@ -2609,9 +2690,6 @@
       </c>
       <c r="H70">
         <v>8</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
       </c>
       <c r="J70">
         <v>4.87</v>
@@ -2624,8 +2702,10 @@
       <c r="B71">
         <v>27</v>
       </c>
-      <c r="C71">
-        <v>1</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D71">
         <v>8.6</v>
@@ -2656,8 +2736,10 @@
       <c r="B72">
         <v>29</v>
       </c>
-      <c r="C72">
-        <v>2</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D72">
         <v>7.6</v>
@@ -2688,8 +2770,10 @@
       <c r="B73">
         <v>19</v>
       </c>
-      <c r="C73">
-        <v>1</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D73">
         <v>8.9</v>
@@ -2705,9 +2789,6 @@
       </c>
       <c r="H73">
         <v>5.9</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
       </c>
       <c r="J73">
         <v>4.72</v>
@@ -2720,8 +2801,10 @@
       <c r="B74">
         <v>27</v>
       </c>
-      <c r="C74">
-        <v>2</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D74">
         <v>7.2</v>
@@ -2752,8 +2835,10 @@
       <c r="B75">
         <v>29</v>
       </c>
-      <c r="C75">
-        <v>1</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D75">
         <v>7.7</v>
@@ -2784,8 +2869,10 @@
       <c r="B76">
         <v>31</v>
       </c>
-      <c r="C76">
-        <v>2</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D76">
         <v>8.699999999999999</v>
@@ -2816,8 +2903,10 @@
       <c r="B77">
         <v>34</v>
       </c>
-      <c r="C77">
-        <v>2</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D77">
         <v>9</v>
@@ -2833,9 +2922,6 @@
       </c>
       <c r="H77">
         <v>5.1</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
       </c>
       <c r="J77">
         <v>4.85</v>
@@ -2848,8 +2934,10 @@
       <c r="B78">
         <v>31</v>
       </c>
-      <c r="C78">
-        <v>2</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D78">
         <v>6.1</v>
@@ -2880,8 +2968,10 @@
       <c r="B79">
         <v>20</v>
       </c>
-      <c r="C79">
-        <v>1</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D79">
         <v>8.1</v>
@@ -2897,9 +2987,6 @@
       </c>
       <c r="H79">
         <v>5.4</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
       </c>
       <c r="J79">
         <v>4.51</v>
@@ -2912,8 +2999,10 @@
       <c r="B80">
         <v>25</v>
       </c>
-      <c r="C80">
-        <v>1</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D80">
         <v>8.6</v>
@@ -2944,8 +3033,10 @@
       <c r="B81">
         <v>31</v>
       </c>
-      <c r="C81">
-        <v>1</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D81">
         <v>6.5</v>
@@ -2976,8 +3067,10 @@
       <c r="B82">
         <v>32</v>
       </c>
-      <c r="C82">
-        <v>1</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D82">
         <v>8.5</v>
@@ -2993,9 +3086,6 @@
       </c>
       <c r="H82">
         <v>8</v>
-      </c>
-      <c r="I82">
-        <v>3</v>
       </c>
       <c r="J82">
         <v>5.03</v>
@@ -3008,8 +3098,10 @@
       <c r="B83">
         <v>34</v>
       </c>
-      <c r="C83">
-        <v>2</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D83">
         <v>7.2</v>
@@ -3040,8 +3132,10 @@
       <c r="B84">
         <v>28</v>
       </c>
-      <c r="C84">
-        <v>1</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D84">
         <v>9</v>
@@ -3072,8 +3166,10 @@
       <c r="B85">
         <v>24</v>
       </c>
-      <c r="C85">
-        <v>2</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D85">
         <v>8.5</v>
@@ -3104,8 +3200,10 @@
       <c r="B86">
         <v>32</v>
       </c>
-      <c r="C86">
-        <v>1</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D86">
         <v>8.800000000000001</v>
@@ -3136,9 +3234,6 @@
       <c r="B87">
         <v>23</v>
       </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
       <c r="D87">
         <v>8.1</v>
       </c>
@@ -3168,8 +3263,10 @@
       <c r="B88">
         <v>31</v>
       </c>
-      <c r="C88">
-        <v>2</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D88">
         <v>8.9</v>
@@ -3200,8 +3297,10 @@
       <c r="B89">
         <v>24</v>
       </c>
-      <c r="C89">
-        <v>1</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D89">
         <v>9.4</v>
@@ -3232,9 +3331,6 @@
       <c r="B90">
         <v>27</v>
       </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
       <c r="D90">
         <v>10</v>
       </c>
@@ -3261,11 +3357,10 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>22</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D91">
         <v>8</v>
@@ -3281,9 +3376,6 @@
       </c>
       <c r="H91">
         <v>8.300000000000001</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
       </c>
       <c r="J91">
         <v>4.22</v>
@@ -3293,11 +3385,10 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>23</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D92">
         <v>5.8</v>
@@ -3328,8 +3419,10 @@
       <c r="B93">
         <v>33</v>
       </c>
-      <c r="C93">
-        <v>1</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D93">
         <v>8</v>
@@ -3360,8 +3453,10 @@
       <c r="B94">
         <v>28</v>
       </c>
-      <c r="C94">
-        <v>2</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D94">
         <v>8.199999999999999</v>
@@ -3392,9 +3487,6 @@
       <c r="B95">
         <v>21</v>
       </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
       <c r="D95">
         <v>7.8</v>
       </c>
@@ -3424,8 +3516,10 @@
       <c r="B96">
         <v>29</v>
       </c>
-      <c r="C96">
-        <v>2</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D96">
         <v>8.6</v>
@@ -3456,8 +3550,10 @@
       <c r="B97">
         <v>31</v>
       </c>
-      <c r="C97">
-        <v>1</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D97">
         <v>9</v>
@@ -3488,8 +3584,10 @@
       <c r="B98">
         <v>24</v>
       </c>
-      <c r="C98">
-        <v>1</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D98">
         <v>7.5</v>
@@ -3520,8 +3618,10 @@
       <c r="B99">
         <v>26</v>
       </c>
-      <c r="C99">
-        <v>1</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D99">
         <v>7.7</v>
@@ -3552,8 +3652,10 @@
       <c r="B100">
         <v>24</v>
       </c>
-      <c r="C100">
-        <v>2</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D100">
         <v>8.4</v>
@@ -3584,8 +3686,10 @@
       <c r="B101">
         <v>19</v>
       </c>
-      <c r="C101">
-        <v>1</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D101">
         <v>7.4</v>
@@ -3616,8 +3720,10 @@
       <c r="B102">
         <v>33</v>
       </c>
-      <c r="C102">
-        <v>1</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D102">
         <v>8.1</v>
@@ -3648,8 +3754,10 @@
       <c r="B103">
         <v>30</v>
       </c>
-      <c r="C103">
-        <v>1</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D103">
         <v>6</v>
@@ -3680,8 +3788,10 @@
       <c r="B104">
         <v>32</v>
       </c>
-      <c r="C104">
-        <v>1</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D104">
         <v>6.9</v>
@@ -3712,8 +3822,10 @@
       <c r="B105">
         <v>24</v>
       </c>
-      <c r="C105">
-        <v>2</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D105">
         <v>6.7</v>
@@ -3744,8 +3856,10 @@
       <c r="B106">
         <v>21</v>
       </c>
-      <c r="C106">
-        <v>2</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D106">
         <v>7.1</v>
@@ -3776,8 +3890,10 @@
       <c r="B107">
         <v>18</v>
       </c>
-      <c r="C107">
-        <v>2</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D107">
         <v>7.3</v>
@@ -3808,8 +3924,10 @@
       <c r="B108">
         <v>25</v>
       </c>
-      <c r="C108">
-        <v>1</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D108">
         <v>8.4</v>
@@ -3840,8 +3958,10 @@
       <c r="B109">
         <v>33</v>
       </c>
-      <c r="C109">
-        <v>1</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D109">
         <v>9</v>
@@ -3872,8 +3992,10 @@
       <c r="B110">
         <v>28</v>
       </c>
-      <c r="C110">
-        <v>2</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D110">
         <v>7.3</v>
@@ -3889,9 +4011,6 @@
       </c>
       <c r="H110">
         <v>4.7</v>
-      </c>
-      <c r="I110">
-        <v>1</v>
       </c>
       <c r="J110">
         <v>5.19</v>
@@ -3904,8 +4023,10 @@
       <c r="B111">
         <v>33</v>
       </c>
-      <c r="C111">
-        <v>1</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D111">
         <v>7</v>
@@ -3936,8 +4057,10 @@
       <c r="B112">
         <v>25</v>
       </c>
-      <c r="C112">
-        <v>1</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D112">
         <v>7</v>
@@ -3968,8 +4091,10 @@
       <c r="B113">
         <v>20</v>
       </c>
-      <c r="C113">
-        <v>2</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D113">
         <v>7.6</v>
@@ -4000,8 +4125,10 @@
       <c r="B114">
         <v>21</v>
       </c>
-      <c r="C114">
-        <v>1</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D114">
         <v>7.8</v>
@@ -4032,8 +4159,10 @@
       <c r="B115">
         <v>29</v>
       </c>
-      <c r="C115">
-        <v>1</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D115">
         <v>8.5</v>
@@ -4064,8 +4193,10 @@
       <c r="B116">
         <v>34</v>
       </c>
-      <c r="C116">
-        <v>2</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D116">
         <v>7.7</v>
@@ -4096,9 +4227,6 @@
       <c r="B117">
         <v>27</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
       <c r="D117">
         <v>5.9</v>
       </c>
@@ -4128,8 +4256,10 @@
       <c r="B118">
         <v>28</v>
       </c>
-      <c r="C118">
-        <v>2</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D118">
         <v>7.9</v>
@@ -4157,11 +4287,10 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119">
-        <v>25</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D119">
         <v>9.199999999999999</v>
@@ -4192,8 +4321,10 @@
       <c r="B120">
         <v>31</v>
       </c>
-      <c r="C120">
-        <v>1</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D120">
         <v>9.199999999999999</v>
@@ -4224,8 +4355,10 @@
       <c r="B121">
         <v>30</v>
       </c>
-      <c r="C121">
-        <v>1</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D121">
         <v>7.2</v>
@@ -4256,8 +4389,10 @@
       <c r="B122">
         <v>19</v>
       </c>
-      <c r="C122">
-        <v>1</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D122">
         <v>6.5</v>
@@ -4288,8 +4423,10 @@
       <c r="B123">
         <v>28</v>
       </c>
-      <c r="C123">
-        <v>1</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D123">
         <v>10.5</v>
@@ -4320,8 +4457,10 @@
       <c r="B124">
         <v>30</v>
       </c>
-      <c r="C124">
-        <v>1</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D124">
         <v>7.8</v>
@@ -4352,8 +4491,10 @@
       <c r="B125">
         <v>31</v>
       </c>
-      <c r="C125">
-        <v>1</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D125">
         <v>7.9</v>
@@ -4384,8 +4525,10 @@
       <c r="B126">
         <v>23</v>
       </c>
-      <c r="C126">
-        <v>2</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D126">
         <v>8.4</v>
@@ -4416,8 +4559,10 @@
       <c r="B127">
         <v>25</v>
       </c>
-      <c r="C127">
-        <v>1</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D127">
         <v>6.4</v>
@@ -4448,8 +4593,10 @@
       <c r="B128">
         <v>29</v>
       </c>
-      <c r="C128">
-        <v>2</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D128">
         <v>7.3</v>
@@ -4480,8 +4627,10 @@
       <c r="B129">
         <v>21</v>
       </c>
-      <c r="C129">
-        <v>2</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D129">
         <v>6.5</v>
@@ -4512,8 +4661,10 @@
       <c r="B130">
         <v>30</v>
       </c>
-      <c r="C130">
-        <v>1</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D130">
         <v>7.3</v>
@@ -4544,8 +4695,10 @@
       <c r="B131">
         <v>31</v>
       </c>
-      <c r="C131">
-        <v>2</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D131">
         <v>8.1</v>
@@ -4576,8 +4729,10 @@
       <c r="B132">
         <v>33</v>
       </c>
-      <c r="C132">
-        <v>2</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D132">
         <v>6.6</v>
@@ -4608,8 +4763,10 @@
       <c r="B133">
         <v>18</v>
       </c>
-      <c r="C133">
-        <v>2</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D133">
         <v>8.6</v>
@@ -4640,8 +4797,10 @@
       <c r="B134">
         <v>25</v>
       </c>
-      <c r="C134">
-        <v>1</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D134">
         <v>8.300000000000001</v>
@@ -4672,8 +4831,10 @@
       <c r="B135">
         <v>25</v>
       </c>
-      <c r="C135">
-        <v>2</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D135">
         <v>7.1</v>
@@ -4704,8 +4865,10 @@
       <c r="B136">
         <v>27</v>
       </c>
-      <c r="C136">
-        <v>2</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D136">
         <v>8.199999999999999</v>
@@ -4721,9 +4884,6 @@
       </c>
       <c r="H136">
         <v>6.2</v>
-      </c>
-      <c r="I136">
-        <v>2</v>
       </c>
       <c r="J136">
         <v>4.28</v>
@@ -4736,8 +4896,10 @@
       <c r="B137">
         <v>25</v>
       </c>
-      <c r="C137">
-        <v>1</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D137">
         <v>8.699999999999999</v>
@@ -4765,11 +4927,10 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138">
-        <v>35</v>
-      </c>
-      <c r="C138">
-        <v>2</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D138">
         <v>9.1</v>
@@ -4785,9 +4946,6 @@
       </c>
       <c r="H138">
         <v>3.3</v>
-      </c>
-      <c r="I138">
-        <v>1</v>
       </c>
       <c r="J138">
         <v>5.44</v>
@@ -4800,8 +4958,10 @@
       <c r="B139">
         <v>26</v>
       </c>
-      <c r="C139">
-        <v>2</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D139">
         <v>7.8</v>
@@ -4832,8 +4992,10 @@
       <c r="B140">
         <v>24</v>
       </c>
-      <c r="C140">
-        <v>1</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D140">
         <v>7.9</v>
@@ -4864,8 +5026,10 @@
       <c r="B141">
         <v>24</v>
       </c>
-      <c r="C141">
-        <v>1</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D141">
         <v>7.9</v>
@@ -4896,8 +5060,10 @@
       <c r="B142">
         <v>27</v>
       </c>
-      <c r="C142">
-        <v>1</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D142">
         <v>9.4</v>
@@ -4913,9 +5079,6 @@
       </c>
       <c r="H142">
         <v>6.4</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
       </c>
       <c r="J142">
         <v>6.47</v>
@@ -4928,8 +5091,10 @@
       <c r="B143">
         <v>28</v>
       </c>
-      <c r="C143">
-        <v>1</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D143">
         <v>9.1</v>
@@ -4960,8 +5125,10 @@
       <c r="B144">
         <v>18</v>
       </c>
-      <c r="C144">
-        <v>1</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D144">
         <v>8.800000000000001</v>
@@ -4977,9 +5144,6 @@
       </c>
       <c r="H144">
         <v>5.1</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
       </c>
       <c r="J144">
         <v>5.37</v>
@@ -4992,8 +5156,10 @@
       <c r="B145">
         <v>27</v>
       </c>
-      <c r="C145">
-        <v>2</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D145">
         <v>7.7</v>
@@ -5024,8 +5190,10 @@
       <c r="B146">
         <v>30</v>
       </c>
-      <c r="C146">
-        <v>2</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D146">
         <v>8.4</v>
@@ -5056,8 +5224,10 @@
       <c r="B147">
         <v>28</v>
       </c>
-      <c r="C147">
-        <v>1</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D147">
         <v>8.4</v>
@@ -5088,8 +5258,10 @@
       <c r="B148">
         <v>28</v>
       </c>
-      <c r="C148">
-        <v>2</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D148">
         <v>7</v>
@@ -5120,8 +5292,10 @@
       <c r="B149">
         <v>24</v>
       </c>
-      <c r="C149">
-        <v>2</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D149">
         <v>6.3</v>
@@ -5152,8 +5326,10 @@
       <c r="B150">
         <v>26</v>
       </c>
-      <c r="C150">
-        <v>1</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D150">
         <v>8.6</v>
@@ -5184,8 +5360,10 @@
       <c r="B151">
         <v>26</v>
       </c>
-      <c r="C151">
-        <v>1</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D151">
         <v>6.5</v>
@@ -5216,8 +5394,10 @@
       <c r="B152">
         <v>22</v>
       </c>
-      <c r="C152">
-        <v>1</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D152">
         <v>8</v>
@@ -5248,8 +5428,10 @@
       <c r="B153">
         <v>31</v>
       </c>
-      <c r="C153">
-        <v>2</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D153">
         <v>8.300000000000001</v>
@@ -5277,11 +5459,10 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154">
-        <v>31</v>
-      </c>
-      <c r="C154">
-        <v>2</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D154">
         <v>8.6</v>
@@ -5297,9 +5478,6 @@
       </c>
       <c r="H154">
         <v>5.9</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
       </c>
       <c r="J154">
         <v>7.74</v>
@@ -5312,8 +5490,10 @@
       <c r="B155">
         <v>23</v>
       </c>
-      <c r="C155">
-        <v>1</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D155">
         <v>8.199999999999999</v>
@@ -5344,8 +5524,10 @@
       <c r="B156">
         <v>18</v>
       </c>
-      <c r="C156">
-        <v>2</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D156">
         <v>7.3</v>
@@ -5376,8 +5558,10 @@
       <c r="B157">
         <v>27</v>
       </c>
-      <c r="C157">
-        <v>2</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D157">
         <v>9</v>
@@ -5408,8 +5592,10 @@
       <c r="B158">
         <v>34</v>
       </c>
-      <c r="C158">
-        <v>2</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D158">
         <v>9.699999999999999</v>
@@ -5440,8 +5626,10 @@
       <c r="B159">
         <v>34</v>
       </c>
-      <c r="C159">
-        <v>1</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D159">
         <v>8.9</v>
@@ -5472,9 +5660,6 @@
       <c r="B160">
         <v>24</v>
       </c>
-      <c r="C160">
-        <v>2</v>
-      </c>
       <c r="D160">
         <v>6.1</v>
       </c>
@@ -5504,8 +5689,10 @@
       <c r="B161">
         <v>26</v>
       </c>
-      <c r="C161">
-        <v>2</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D161">
         <v>9.4</v>
@@ -5536,8 +5723,10 @@
       <c r="B162">
         <v>23</v>
       </c>
-      <c r="C162">
-        <v>2</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D162">
         <v>7.9</v>
@@ -5568,8 +5757,10 @@
       <c r="B163">
         <v>35</v>
       </c>
-      <c r="C163">
-        <v>1</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D163">
         <v>8.5</v>
@@ -5600,8 +5791,10 @@
       <c r="B164">
         <v>34</v>
       </c>
-      <c r="C164">
-        <v>1</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D164">
         <v>8.6</v>
@@ -5632,8 +5825,10 @@
       <c r="B165">
         <v>22</v>
       </c>
-      <c r="C165">
-        <v>1</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D165">
         <v>7.9</v>
@@ -5664,8 +5859,10 @@
       <c r="B166">
         <v>20</v>
       </c>
-      <c r="C166">
-        <v>2</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D166">
         <v>7.9</v>
@@ -5696,8 +5893,10 @@
       <c r="B167">
         <v>31</v>
       </c>
-      <c r="C167">
-        <v>1</v>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D167">
         <v>9</v>
@@ -5713,9 +5912,6 @@
       </c>
       <c r="H167">
         <v>5.4</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
       </c>
       <c r="J167">
         <v>6.64</v>
@@ -5728,8 +5924,10 @@
       <c r="B168">
         <v>18</v>
       </c>
-      <c r="C168">
-        <v>1</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D168">
         <v>8.699999999999999</v>
@@ -5760,8 +5958,10 @@
       <c r="B169">
         <v>19</v>
       </c>
-      <c r="C169">
-        <v>2</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D169">
         <v>9</v>
@@ -5792,8 +5992,10 @@
       <c r="B170">
         <v>21</v>
       </c>
-      <c r="C170">
-        <v>2</v>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D170">
         <v>10.4</v>
@@ -5824,8 +6026,10 @@
       <c r="B171">
         <v>27</v>
       </c>
-      <c r="C171">
-        <v>1</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D171">
         <v>8.699999999999999</v>
@@ -5856,8 +6060,10 @@
       <c r="B172">
         <v>18</v>
       </c>
-      <c r="C172">
-        <v>1</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D172">
         <v>8.199999999999999</v>
@@ -5888,8 +6094,10 @@
       <c r="B173">
         <v>22</v>
       </c>
-      <c r="C173">
-        <v>1</v>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D173">
         <v>5.8</v>
@@ -5920,8 +6128,10 @@
       <c r="B174">
         <v>25</v>
       </c>
-      <c r="C174">
-        <v>2</v>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D174">
         <v>10.7</v>
@@ -5952,8 +6162,10 @@
       <c r="B175">
         <v>30</v>
       </c>
-      <c r="C175">
-        <v>1</v>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D175">
         <v>7.5</v>
@@ -5984,8 +6196,10 @@
       <c r="B176">
         <v>35</v>
       </c>
-      <c r="C176">
-        <v>1</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D176">
         <v>10.4</v>
@@ -6016,8 +6230,10 @@
       <c r="B177">
         <v>27</v>
       </c>
-      <c r="C177">
-        <v>2</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D177">
         <v>8.4</v>
@@ -6048,8 +6264,10 @@
       <c r="B178">
         <v>23</v>
       </c>
-      <c r="C178">
-        <v>2</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D178">
         <v>9.5</v>
@@ -6080,8 +6298,10 @@
       <c r="B179">
         <v>24</v>
       </c>
-      <c r="C179">
-        <v>2</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D179">
         <v>7.9</v>
@@ -6109,11 +6329,10 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180">
-        <v>26</v>
-      </c>
-      <c r="C180">
-        <v>1</v>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D180">
         <v>8.5</v>
@@ -6144,8 +6363,10 @@
       <c r="B181">
         <v>33</v>
       </c>
-      <c r="C181">
-        <v>1</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D181">
         <v>8.199999999999999</v>
@@ -6176,8 +6397,10 @@
       <c r="B182">
         <v>34</v>
       </c>
-      <c r="C182">
-        <v>1</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D182">
         <v>7.8</v>
@@ -6208,8 +6431,10 @@
       <c r="B183">
         <v>30</v>
       </c>
-      <c r="C183">
-        <v>2</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D183">
         <v>7.9</v>
@@ -6240,8 +6465,10 @@
       <c r="B184">
         <v>25</v>
       </c>
-      <c r="C184">
-        <v>2</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D184">
         <v>9</v>
@@ -6272,8 +6499,10 @@
       <c r="B185">
         <v>24</v>
       </c>
-      <c r="C185">
-        <v>1</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D185">
         <v>7.8</v>
@@ -6304,8 +6533,10 @@
       <c r="B186">
         <v>35</v>
       </c>
-      <c r="C186">
-        <v>2</v>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D186">
         <v>6</v>
@@ -6336,8 +6567,10 @@
       <c r="B187">
         <v>34</v>
       </c>
-      <c r="C187">
-        <v>2</v>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D187">
         <v>7.8</v>
@@ -6368,8 +6601,10 @@
       <c r="B188">
         <v>18</v>
       </c>
-      <c r="C188">
-        <v>2</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D188">
         <v>8.5</v>
@@ -6400,8 +6635,10 @@
       <c r="B189">
         <v>19</v>
       </c>
-      <c r="C189">
-        <v>1</v>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D189">
         <v>8.6</v>
@@ -6432,8 +6669,10 @@
       <c r="B190">
         <v>34</v>
       </c>
-      <c r="C190">
-        <v>1</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D190">
         <v>8.6</v>
@@ -6464,8 +6703,10 @@
       <c r="B191">
         <v>19</v>
       </c>
-      <c r="C191">
-        <v>2</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D191">
         <v>6.3</v>
@@ -6496,8 +6737,10 @@
       <c r="B192">
         <v>30</v>
       </c>
-      <c r="C192">
-        <v>2</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D192">
         <v>8.4</v>
@@ -6528,8 +6771,10 @@
       <c r="B193">
         <v>34</v>
       </c>
-      <c r="C193">
-        <v>1</v>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D193">
         <v>9</v>
@@ -6560,8 +6805,10 @@
       <c r="B194">
         <v>20</v>
       </c>
-      <c r="C194">
-        <v>2</v>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D194">
         <v>9.300000000000001</v>
@@ -6592,8 +6839,10 @@
       <c r="B195">
         <v>35</v>
       </c>
-      <c r="C195">
-        <v>1</v>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D195">
         <v>7.8</v>
@@ -6621,11 +6870,10 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196">
-        <v>19</v>
-      </c>
-      <c r="C196">
-        <v>1</v>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D196">
         <v>7.7</v>
@@ -6656,8 +6904,10 @@
       <c r="B197">
         <v>22</v>
       </c>
-      <c r="C197">
-        <v>1</v>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D197">
         <v>9.5</v>
@@ -6685,11 +6935,10 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198">
-        <v>29</v>
-      </c>
-      <c r="C198">
-        <v>1</v>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D198">
         <v>6.3</v>
@@ -6720,8 +6969,10 @@
       <c r="B199">
         <v>30</v>
       </c>
-      <c r="C199">
-        <v>1</v>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D199">
         <v>7.6</v>
@@ -6752,8 +7003,10 @@
       <c r="B200">
         <v>27</v>
       </c>
-      <c r="C200">
-        <v>1</v>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D200">
         <v>8.5</v>
@@ -6784,8 +7037,10 @@
       <c r="B201">
         <v>23</v>
       </c>
-      <c r="C201">
-        <v>1</v>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D201">
         <v>6.4</v>
@@ -6816,8 +7071,10 @@
       <c r="B202">
         <v>27</v>
       </c>
-      <c r="C202">
-        <v>1</v>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D202">
         <v>8.300000000000001</v>
@@ -6848,8 +7105,10 @@
       <c r="B203">
         <v>27</v>
       </c>
-      <c r="C203">
-        <v>1</v>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D203">
         <v>9.9</v>
@@ -6880,8 +7139,10 @@
       <c r="B204">
         <v>23</v>
       </c>
-      <c r="C204">
-        <v>1</v>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D204">
         <v>8</v>
@@ -6912,8 +7173,10 @@
       <c r="B205">
         <v>33</v>
       </c>
-      <c r="C205">
-        <v>1</v>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D205">
         <v>7.7</v>
@@ -6944,8 +7207,10 @@
       <c r="B206">
         <v>33</v>
       </c>
-      <c r="C206">
-        <v>2</v>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D206">
         <v>8.5</v>
@@ -6976,8 +7241,10 @@
       <c r="B207">
         <v>20</v>
       </c>
-      <c r="C207">
-        <v>1</v>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D207">
         <v>7.7</v>
@@ -7008,8 +7275,10 @@
       <c r="B208">
         <v>21</v>
       </c>
-      <c r="C208">
-        <v>1</v>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D208">
         <v>8.800000000000001</v>
@@ -7040,8 +7309,10 @@
       <c r="B209">
         <v>20</v>
       </c>
-      <c r="C209">
-        <v>2</v>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D209">
         <v>8.9</v>
@@ -7072,9 +7343,6 @@
       <c r="B210">
         <v>20</v>
       </c>
-      <c r="C210">
-        <v>2</v>
-      </c>
       <c r="D210">
         <v>8</v>
       </c>
@@ -7104,8 +7372,10 @@
       <c r="B211">
         <v>33</v>
       </c>
-      <c r="C211">
-        <v>1</v>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D211">
         <v>6.8</v>
@@ -7121,9 +7391,6 @@
       </c>
       <c r="H211">
         <v>6.4</v>
-      </c>
-      <c r="I211">
-        <v>3</v>
       </c>
       <c r="J211">
         <v>4.48</v>
@@ -7136,8 +7403,10 @@
       <c r="B212">
         <v>19</v>
       </c>
-      <c r="C212">
-        <v>1</v>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D212">
         <v>6.7</v>
@@ -7153,9 +7422,6 @@
       </c>
       <c r="H212">
         <v>4.6</v>
-      </c>
-      <c r="I212">
-        <v>1</v>
       </c>
       <c r="J212">
         <v>7.28</v>
@@ -7168,8 +7434,10 @@
       <c r="B213">
         <v>32</v>
       </c>
-      <c r="C213">
-        <v>1</v>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D213">
         <v>7.4</v>
@@ -7200,8 +7468,10 @@
       <c r="B214">
         <v>20</v>
       </c>
-      <c r="C214">
-        <v>1</v>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D214">
         <v>8.800000000000001</v>
@@ -7232,8 +7502,10 @@
       <c r="B215">
         <v>26</v>
       </c>
-      <c r="C215">
-        <v>1</v>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D215">
         <v>6</v>
@@ -7264,8 +7536,10 @@
       <c r="B216">
         <v>24</v>
       </c>
-      <c r="C216">
-        <v>2</v>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D216">
         <v>6.1</v>
@@ -7296,8 +7570,10 @@
       <c r="B217">
         <v>26</v>
       </c>
-      <c r="C217">
-        <v>1</v>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D217">
         <v>7.3</v>
@@ -7328,8 +7604,10 @@
       <c r="B218">
         <v>21</v>
       </c>
-      <c r="C218">
-        <v>2</v>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D218">
         <v>8.4</v>
@@ -7345,9 +7623,6 @@
       </c>
       <c r="H218">
         <v>7.2</v>
-      </c>
-      <c r="I218">
-        <v>0</v>
       </c>
       <c r="J218">
         <v>4.66</v>
@@ -7360,8 +7635,10 @@
       <c r="B219">
         <v>19</v>
       </c>
-      <c r="C219">
-        <v>1</v>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D219">
         <v>7.1</v>
@@ -7392,8 +7669,10 @@
       <c r="B220">
         <v>29</v>
       </c>
-      <c r="C220">
-        <v>1</v>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D220">
         <v>8.9</v>
@@ -7424,8 +7703,10 @@
       <c r="B221">
         <v>26</v>
       </c>
-      <c r="C221">
-        <v>1</v>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D221">
         <v>8.300000000000001</v>
@@ -7456,8 +7737,10 @@
       <c r="B222">
         <v>28</v>
       </c>
-      <c r="C222">
-        <v>2</v>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D222">
         <v>7.8</v>
@@ -7488,8 +7771,10 @@
       <c r="B223">
         <v>24</v>
       </c>
-      <c r="C223">
-        <v>1</v>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D223">
         <v>8.800000000000001</v>
@@ -7520,8 +7805,10 @@
       <c r="B224">
         <v>30</v>
       </c>
-      <c r="C224">
-        <v>2</v>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D224">
         <v>8.4</v>
@@ -7537,9 +7824,6 @@
       </c>
       <c r="H224">
         <v>5.3</v>
-      </c>
-      <c r="I224">
-        <v>0</v>
       </c>
       <c r="J224">
         <v>6.03</v>
@@ -7552,8 +7836,10 @@
       <c r="B225">
         <v>22</v>
       </c>
-      <c r="C225">
-        <v>1</v>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D225">
         <v>7.6</v>
@@ -7569,9 +7855,6 @@
       </c>
       <c r="H225">
         <v>4.5</v>
-      </c>
-      <c r="I225">
-        <v>0</v>
       </c>
       <c r="J225">
         <v>6.07</v>
@@ -7584,8 +7867,10 @@
       <c r="B226">
         <v>28</v>
       </c>
-      <c r="C226">
-        <v>2</v>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D226">
         <v>8.199999999999999</v>
@@ -7616,8 +7901,10 @@
       <c r="B227">
         <v>18</v>
       </c>
-      <c r="C227">
-        <v>1</v>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D227">
         <v>8.6</v>
@@ -7648,8 +7935,10 @@
       <c r="B228">
         <v>29</v>
       </c>
-      <c r="C228">
-        <v>1</v>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D228">
         <v>8.4</v>
@@ -7680,8 +7969,10 @@
       <c r="B229">
         <v>19</v>
       </c>
-      <c r="C229">
-        <v>2</v>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D229">
         <v>7.3</v>
@@ -7709,11 +8000,10 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230">
-        <v>34</v>
-      </c>
-      <c r="C230">
-        <v>2</v>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D230">
         <v>8.9</v>
@@ -7744,8 +8034,10 @@
       <c r="B231">
         <v>29</v>
       </c>
-      <c r="C231">
-        <v>1</v>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D231">
         <v>9.199999999999999</v>
@@ -7776,8 +8068,10 @@
       <c r="B232">
         <v>20</v>
       </c>
-      <c r="C232">
-        <v>1</v>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D232">
         <v>8.300000000000001</v>
@@ -7808,8 +8102,10 @@
       <c r="B233">
         <v>35</v>
       </c>
-      <c r="C233">
-        <v>1</v>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D233">
         <v>8.1</v>
@@ -7840,8 +8136,10 @@
       <c r="B234">
         <v>32</v>
       </c>
-      <c r="C234">
-        <v>1</v>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D234">
         <v>7.9</v>
@@ -7872,8 +8170,10 @@
       <c r="B235">
         <v>20</v>
       </c>
-      <c r="C235">
-        <v>2</v>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D235">
         <v>10.2</v>
@@ -7904,9 +8204,6 @@
       <c r="B236">
         <v>35</v>
       </c>
-      <c r="C236">
-        <v>2</v>
-      </c>
       <c r="D236">
         <v>8.300000000000001</v>
       </c>
@@ -7936,8 +8233,10 @@
       <c r="B237">
         <v>34</v>
       </c>
-      <c r="C237">
-        <v>2</v>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D237">
         <v>7.8</v>
@@ -7968,8 +8267,10 @@
       <c r="B238">
         <v>23</v>
       </c>
-      <c r="C238">
-        <v>2</v>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D238">
         <v>5.5</v>
@@ -8000,8 +8301,10 @@
       <c r="B239">
         <v>27</v>
       </c>
-      <c r="C239">
-        <v>2</v>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D239">
         <v>6.4</v>
@@ -8032,8 +8335,10 @@
       <c r="B240">
         <v>25</v>
       </c>
-      <c r="C240">
-        <v>1</v>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D240">
         <v>7.9</v>
@@ -8064,9 +8369,6 @@
       <c r="B241">
         <v>27</v>
       </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
       <c r="D241">
         <v>8.199999999999999</v>
       </c>
@@ -8096,8 +8398,10 @@
       <c r="B242">
         <v>30</v>
       </c>
-      <c r="C242">
-        <v>1</v>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D242">
         <v>8.300000000000001</v>
@@ -8128,8 +8432,10 @@
       <c r="B243">
         <v>23</v>
       </c>
-      <c r="C243">
-        <v>1</v>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D243">
         <v>8.800000000000001</v>
@@ -8160,9 +8466,6 @@
       <c r="B244">
         <v>26</v>
       </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
       <c r="D244">
         <v>7.8</v>
       </c>
@@ -8189,11 +8492,10 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245">
-        <v>33</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D245">
         <v>9.199999999999999</v>
@@ -8224,8 +8526,10 @@
       <c r="B246">
         <v>25</v>
       </c>
-      <c r="C246">
-        <v>1</v>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D246">
         <v>7.1</v>
@@ -8256,8 +8560,10 @@
       <c r="B247">
         <v>24</v>
       </c>
-      <c r="C247">
-        <v>1</v>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D247">
         <v>6.8</v>
@@ -8288,8 +8594,10 @@
       <c r="B248">
         <v>27</v>
       </c>
-      <c r="C248">
-        <v>1</v>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D248">
         <v>6.8</v>
@@ -8320,8 +8628,10 @@
       <c r="B249">
         <v>34</v>
       </c>
-      <c r="C249">
-        <v>2</v>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D249">
         <v>8.699999999999999</v>
@@ -8352,8 +8662,10 @@
       <c r="B250">
         <v>35</v>
       </c>
-      <c r="C250">
-        <v>2</v>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D250">
         <v>7.9</v>
@@ -8384,8 +8696,10 @@
       <c r="B251">
         <v>25</v>
       </c>
-      <c r="C251">
-        <v>1</v>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D251">
         <v>8.800000000000001</v>
@@ -8416,8 +8730,10 @@
       <c r="B252">
         <v>27</v>
       </c>
-      <c r="C252">
-        <v>2</v>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D252">
         <v>7.7</v>
@@ -8448,8 +8764,10 @@
       <c r="B253">
         <v>28</v>
       </c>
-      <c r="C253">
-        <v>1</v>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D253">
         <v>7.4</v>
@@ -8480,8 +8798,10 @@
       <c r="B254">
         <v>34</v>
       </c>
-      <c r="C254">
-        <v>1</v>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D254">
         <v>7.6</v>
@@ -8512,8 +8832,10 @@
       <c r="B255">
         <v>29</v>
       </c>
-      <c r="C255">
-        <v>2</v>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D255">
         <v>6.1</v>
@@ -8529,9 +8851,6 @@
       </c>
       <c r="H255">
         <v>6.4</v>
-      </c>
-      <c r="I255">
-        <v>1</v>
       </c>
       <c r="J255">
         <v>4.72</v>
@@ -8544,8 +8863,10 @@
       <c r="B256">
         <v>19</v>
       </c>
-      <c r="C256">
-        <v>1</v>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D256">
         <v>6.8</v>
@@ -8573,11 +8894,10 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257">
-        <v>30</v>
-      </c>
-      <c r="C257">
-        <v>2</v>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D257">
         <v>6.6</v>
@@ -8608,8 +8928,10 @@
       <c r="B258">
         <v>30</v>
       </c>
-      <c r="C258">
-        <v>2</v>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D258">
         <v>9.1</v>
@@ -8640,8 +8962,10 @@
       <c r="B259">
         <v>27</v>
       </c>
-      <c r="C259">
-        <v>1</v>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D259">
         <v>7.4</v>
@@ -8672,8 +8996,10 @@
       <c r="B260">
         <v>33</v>
       </c>
-      <c r="C260">
-        <v>2</v>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D260">
         <v>8.800000000000001</v>
@@ -8704,8 +9030,10 @@
       <c r="B261">
         <v>22</v>
       </c>
-      <c r="C261">
-        <v>1</v>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D261">
         <v>9.5</v>
@@ -8736,8 +9064,10 @@
       <c r="B262">
         <v>21</v>
       </c>
-      <c r="C262">
-        <v>1</v>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D262">
         <v>7.8</v>
@@ -8768,9 +9098,6 @@
       <c r="B263">
         <v>35</v>
       </c>
-      <c r="C263">
-        <v>1</v>
-      </c>
       <c r="D263">
         <v>8.300000000000001</v>
       </c>
@@ -8800,8 +9127,10 @@
       <c r="B264">
         <v>18</v>
       </c>
-      <c r="C264">
-        <v>1</v>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D264">
         <v>6.2</v>
@@ -8817,9 +9146,6 @@
       </c>
       <c r="H264">
         <v>7.9</v>
-      </c>
-      <c r="I264">
-        <v>0</v>
       </c>
       <c r="J264">
         <v>4.42</v>
@@ -8832,8 +9158,10 @@
       <c r="B265">
         <v>33</v>
       </c>
-      <c r="C265">
-        <v>1</v>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D265">
         <v>7.2</v>
@@ -8864,8 +9192,10 @@
       <c r="B266">
         <v>34</v>
       </c>
-      <c r="C266">
-        <v>1</v>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D266">
         <v>8.1</v>
@@ -8896,8 +9226,10 @@
       <c r="B267">
         <v>29</v>
       </c>
-      <c r="C267">
-        <v>1</v>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D267">
         <v>8.300000000000001</v>
@@ -8928,8 +9260,10 @@
       <c r="B268">
         <v>19</v>
       </c>
-      <c r="C268">
-        <v>1</v>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D268">
         <v>7.2</v>
@@ -8960,8 +9294,10 @@
       <c r="B269">
         <v>35</v>
       </c>
-      <c r="C269">
-        <v>2</v>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D269">
         <v>10.7</v>
@@ -8992,8 +9328,10 @@
       <c r="B270">
         <v>29</v>
       </c>
-      <c r="C270">
-        <v>1</v>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D270">
         <v>7.5</v>
@@ -9024,8 +9362,10 @@
       <c r="B271">
         <v>32</v>
       </c>
-      <c r="C271">
-        <v>2</v>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D271">
         <v>8.1</v>
@@ -9056,8 +9396,10 @@
       <c r="B272">
         <v>23</v>
       </c>
-      <c r="C272">
-        <v>1</v>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D272">
         <v>8.6</v>
@@ -9088,8 +9430,10 @@
       <c r="B273">
         <v>33</v>
       </c>
-      <c r="C273">
-        <v>1</v>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D273">
         <v>8</v>
@@ -9120,8 +9464,10 @@
       <c r="B274">
         <v>32</v>
       </c>
-      <c r="C274">
-        <v>1</v>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D274">
         <v>7.4</v>
@@ -9152,8 +9498,10 @@
       <c r="B275">
         <v>20</v>
       </c>
-      <c r="C275">
-        <v>2</v>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D275">
         <v>9</v>
@@ -9184,8 +9532,10 @@
       <c r="B276">
         <v>31</v>
       </c>
-      <c r="C276">
-        <v>2</v>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D276">
         <v>9.6</v>
@@ -9216,8 +9566,10 @@
       <c r="B277">
         <v>18</v>
       </c>
-      <c r="C277">
-        <v>1</v>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D277">
         <v>8</v>
@@ -9248,8 +9600,10 @@
       <c r="B278">
         <v>18</v>
       </c>
-      <c r="C278">
-        <v>2</v>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D278">
         <v>8.6</v>
@@ -9265,9 +9619,6 @@
       </c>
       <c r="H278">
         <v>4.8</v>
-      </c>
-      <c r="I278">
-        <v>3</v>
       </c>
       <c r="J278">
         <v>7.76</v>
@@ -9280,9 +9631,6 @@
       <c r="B279">
         <v>33</v>
       </c>
-      <c r="C279">
-        <v>1</v>
-      </c>
       <c r="D279">
         <v>7.9</v>
       </c>
@@ -9312,8 +9660,10 @@
       <c r="B280">
         <v>28</v>
       </c>
-      <c r="C280">
-        <v>2</v>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D280">
         <v>9</v>
@@ -9344,8 +9694,10 @@
       <c r="B281">
         <v>21</v>
       </c>
-      <c r="C281">
-        <v>1</v>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D281">
         <v>6.8</v>
@@ -9376,8 +9728,10 @@
       <c r="B282">
         <v>29</v>
       </c>
-      <c r="C282">
-        <v>1</v>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D282">
         <v>10.3</v>
@@ -9408,8 +9762,10 @@
       <c r="B283">
         <v>30</v>
       </c>
-      <c r="C283">
-        <v>1</v>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D283">
         <v>7.4</v>
@@ -9440,8 +9796,10 @@
       <c r="B284">
         <v>27</v>
       </c>
-      <c r="C284">
-        <v>1</v>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D284">
         <v>6.5</v>
@@ -9472,8 +9830,10 @@
       <c r="B285">
         <v>27</v>
       </c>
-      <c r="C285">
-        <v>1</v>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D285">
         <v>7.6</v>
@@ -9504,8 +9864,10 @@
       <c r="B286">
         <v>24</v>
       </c>
-      <c r="C286">
-        <v>1</v>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D286">
         <v>8.1</v>
@@ -9536,8 +9898,10 @@
       <c r="B287">
         <v>35</v>
       </c>
-      <c r="C287">
-        <v>1</v>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D287">
         <v>9.6</v>
@@ -9568,8 +9932,10 @@
       <c r="B288">
         <v>34</v>
       </c>
-      <c r="C288">
-        <v>2</v>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D288">
         <v>8.9</v>
@@ -9600,8 +9966,10 @@
       <c r="B289">
         <v>26</v>
       </c>
-      <c r="C289">
-        <v>1</v>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D289">
         <v>8.1</v>
@@ -9632,8 +10000,10 @@
       <c r="B290">
         <v>28</v>
       </c>
-      <c r="C290">
-        <v>1</v>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D290">
         <v>6.6</v>
@@ -9664,8 +10034,10 @@
       <c r="B291">
         <v>29</v>
       </c>
-      <c r="C291">
-        <v>1</v>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D291">
         <v>7.1</v>
@@ -9681,9 +10053,6 @@
       </c>
       <c r="H291">
         <v>5</v>
-      </c>
-      <c r="I291">
-        <v>0</v>
       </c>
       <c r="J291">
         <v>4.06</v>
@@ -9696,9 +10065,6 @@
       <c r="B292">
         <v>25</v>
       </c>
-      <c r="C292">
-        <v>1</v>
-      </c>
       <c r="D292">
         <v>7.8</v>
       </c>
@@ -9728,8 +10094,10 @@
       <c r="B293">
         <v>35</v>
       </c>
-      <c r="C293">
-        <v>1</v>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D293">
         <v>10.6</v>
@@ -9760,8 +10128,10 @@
       <c r="B294">
         <v>22</v>
       </c>
-      <c r="C294">
-        <v>2</v>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D294">
         <v>6.1</v>
@@ -9792,8 +10162,10 @@
       <c r="B295">
         <v>35</v>
       </c>
-      <c r="C295">
-        <v>2</v>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D295">
         <v>9.1</v>
@@ -9809,9 +10181,6 @@
       </c>
       <c r="H295">
         <v>2.8</v>
-      </c>
-      <c r="I295">
-        <v>2</v>
       </c>
       <c r="J295">
         <v>8.42</v>
@@ -9824,8 +10193,10 @@
       <c r="B296">
         <v>23</v>
       </c>
-      <c r="C296">
-        <v>1</v>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D296">
         <v>7.5</v>
@@ -9856,8 +10227,10 @@
       <c r="B297">
         <v>27</v>
       </c>
-      <c r="C297">
-        <v>1</v>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D297">
         <v>9.699999999999999</v>
@@ -9888,8 +10261,10 @@
       <c r="B298">
         <v>26</v>
       </c>
-      <c r="C298">
-        <v>1</v>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D298">
         <v>6.9</v>
@@ -9920,8 +10295,10 @@
       <c r="B299">
         <v>28</v>
       </c>
-      <c r="C299">
-        <v>1</v>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D299">
         <v>8.1</v>
@@ -9949,11 +10326,10 @@
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300">
-        <v>23</v>
-      </c>
-      <c r="C300">
-        <v>1</v>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D300">
         <v>6.9</v>
@@ -9984,8 +10360,10 @@
       <c r="B301">
         <v>29</v>
       </c>
-      <c r="C301">
-        <v>1</v>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D301">
         <v>8.9</v>
@@ -10016,8 +10394,10 @@
       <c r="B302">
         <v>21</v>
       </c>
-      <c r="C302">
-        <v>2</v>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D302">
         <v>9.5</v>
@@ -10048,8 +10428,10 @@
       <c r="B303">
         <v>20</v>
       </c>
-      <c r="C303">
-        <v>2</v>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D303">
         <v>10</v>
@@ -10080,8 +10462,10 @@
       <c r="B304">
         <v>31</v>
       </c>
-      <c r="C304">
-        <v>2</v>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D304">
         <v>8.800000000000001</v>
@@ -10112,8 +10496,10 @@
       <c r="B305">
         <v>25</v>
       </c>
-      <c r="C305">
-        <v>2</v>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D305">
         <v>9.800000000000001</v>
@@ -10144,8 +10530,10 @@
       <c r="B306">
         <v>23</v>
       </c>
-      <c r="C306">
-        <v>2</v>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D306">
         <v>9.199999999999999</v>
@@ -10173,12 +10561,6 @@
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307">
-        <v>21</v>
-      </c>
-      <c r="C307">
-        <v>1</v>
-      </c>
       <c r="D307">
         <v>7.9</v>
       </c>
@@ -10208,8 +10590,10 @@
       <c r="B308">
         <v>27</v>
       </c>
-      <c r="C308">
-        <v>1</v>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D308">
         <v>8.5</v>
@@ -10240,9 +10624,6 @@
       <c r="B309">
         <v>33</v>
       </c>
-      <c r="C309">
-        <v>1</v>
-      </c>
       <c r="D309">
         <v>7</v>
       </c>
@@ -10272,8 +10653,10 @@
       <c r="B310">
         <v>33</v>
       </c>
-      <c r="C310">
-        <v>2</v>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D310">
         <v>7.8</v>
@@ -10289,9 +10672,6 @@
       </c>
       <c r="H310">
         <v>2.2</v>
-      </c>
-      <c r="I310">
-        <v>0</v>
       </c>
       <c r="J310">
         <v>5.96</v>
@@ -10304,8 +10684,10 @@
       <c r="B311">
         <v>27</v>
       </c>
-      <c r="C311">
-        <v>1</v>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D311">
         <v>9.199999999999999</v>
@@ -10336,8 +10718,10 @@
       <c r="B312">
         <v>23</v>
       </c>
-      <c r="C312">
-        <v>1</v>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D312">
         <v>8.5</v>
@@ -10368,8 +10752,10 @@
       <c r="B313">
         <v>21</v>
       </c>
-      <c r="C313">
-        <v>2</v>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D313">
         <v>8.5</v>
@@ -10400,8 +10786,10 @@
       <c r="B314">
         <v>26</v>
       </c>
-      <c r="C314">
-        <v>2</v>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D314">
         <v>7</v>
@@ -10432,8 +10820,10 @@
       <c r="B315">
         <v>21</v>
       </c>
-      <c r="C315">
-        <v>1</v>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D315">
         <v>7.4</v>
@@ -10464,8 +10854,10 @@
       <c r="B316">
         <v>32</v>
       </c>
-      <c r="C316">
-        <v>1</v>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D316">
         <v>7.2</v>
@@ -10496,8 +10888,10 @@
       <c r="B317">
         <v>34</v>
       </c>
-      <c r="C317">
-        <v>1</v>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D317">
         <v>8.4</v>
@@ -10513,9 +10907,6 @@
       </c>
       <c r="H317">
         <v>3.8</v>
-      </c>
-      <c r="I317">
-        <v>0</v>
       </c>
       <c r="J317">
         <v>6.52</v>
@@ -10528,8 +10919,10 @@
       <c r="B318">
         <v>24</v>
       </c>
-      <c r="C318">
-        <v>1</v>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D318">
         <v>7</v>
@@ -10560,8 +10953,10 @@
       <c r="B319">
         <v>32</v>
       </c>
-      <c r="C319">
-        <v>2</v>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D319">
         <v>8.6</v>
@@ -10592,8 +10987,10 @@
       <c r="B320">
         <v>22</v>
       </c>
-      <c r="C320">
-        <v>1</v>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D320">
         <v>6.9</v>
@@ -10624,8 +11021,10 @@
       <c r="B321">
         <v>31</v>
       </c>
-      <c r="C321">
-        <v>1</v>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D321">
         <v>9.800000000000001</v>
@@ -10656,8 +11055,10 @@
       <c r="B322">
         <v>32</v>
       </c>
-      <c r="C322">
-        <v>2</v>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D322">
         <v>8.5</v>
@@ -10688,8 +11089,10 @@
       <c r="B323">
         <v>32</v>
       </c>
-      <c r="C323">
-        <v>1</v>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D323">
         <v>7.3</v>
@@ -10720,8 +11123,10 @@
       <c r="B324">
         <v>33</v>
       </c>
-      <c r="C324">
-        <v>2</v>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D324">
         <v>8.199999999999999</v>
@@ -10752,8 +11157,10 @@
       <c r="B325">
         <v>25</v>
       </c>
-      <c r="C325">
-        <v>2</v>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D325">
         <v>7.6</v>
@@ -10784,8 +11191,10 @@
       <c r="B326">
         <v>22</v>
       </c>
-      <c r="C326">
-        <v>2</v>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D326">
         <v>8.4</v>
@@ -10816,8 +11225,10 @@
       <c r="B327">
         <v>24</v>
       </c>
-      <c r="C327">
-        <v>2</v>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D327">
         <v>8.199999999999999</v>
@@ -10848,8 +11259,10 @@
       <c r="B328">
         <v>33</v>
       </c>
-      <c r="C328">
-        <v>2</v>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D328">
         <v>7</v>
@@ -10877,11 +11290,10 @@
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="B329">
-        <v>33</v>
-      </c>
-      <c r="C329">
-        <v>2</v>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D329">
         <v>7.2</v>
@@ -10912,8 +11324,10 @@
       <c r="B330">
         <v>26</v>
       </c>
-      <c r="C330">
-        <v>1</v>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D330">
         <v>8.300000000000001</v>
@@ -10944,8 +11358,10 @@
       <c r="B331">
         <v>28</v>
       </c>
-      <c r="C331">
-        <v>1</v>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D331">
         <v>9.6</v>
@@ -10961,9 +11377,6 @@
       </c>
       <c r="H331">
         <v>7.6</v>
-      </c>
-      <c r="I331">
-        <v>0</v>
       </c>
       <c r="J331">
         <v>5.75</v>
@@ -10976,8 +11389,10 @@
       <c r="B332">
         <v>28</v>
       </c>
-      <c r="C332">
-        <v>1</v>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D332">
         <v>9.1</v>
@@ -11008,8 +11423,10 @@
       <c r="B333">
         <v>27</v>
       </c>
-      <c r="C333">
-        <v>1</v>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D333">
         <v>7.4</v>
@@ -11025,9 +11442,6 @@
       </c>
       <c r="H333">
         <v>5.4</v>
-      </c>
-      <c r="I333">
-        <v>1</v>
       </c>
       <c r="J333">
         <v>4.8</v>
@@ -11040,8 +11454,10 @@
       <c r="B334">
         <v>19</v>
       </c>
-      <c r="C334">
-        <v>1</v>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D334">
         <v>8.800000000000001</v>
@@ -11072,8 +11488,10 @@
       <c r="B335">
         <v>23</v>
       </c>
-      <c r="C335">
-        <v>1</v>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D335">
         <v>8</v>
@@ -11104,8 +11522,10 @@
       <c r="B336">
         <v>31</v>
       </c>
-      <c r="C336">
-        <v>1</v>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D336">
         <v>8.300000000000001</v>
@@ -11136,8 +11556,10 @@
       <c r="B337">
         <v>31</v>
       </c>
-      <c r="C337">
-        <v>1</v>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D337">
         <v>8.300000000000001</v>
@@ -11168,8 +11590,10 @@
       <c r="B338">
         <v>23</v>
       </c>
-      <c r="C338">
-        <v>2</v>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D338">
         <v>10.6</v>
@@ -11200,8 +11624,10 @@
       <c r="B339">
         <v>35</v>
       </c>
-      <c r="C339">
-        <v>1</v>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D339">
         <v>6.8</v>
@@ -11232,8 +11658,10 @@
       <c r="B340">
         <v>19</v>
       </c>
-      <c r="C340">
-        <v>1</v>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D340">
         <v>8.1</v>
@@ -11264,8 +11692,10 @@
       <c r="B341">
         <v>25</v>
       </c>
-      <c r="C341">
-        <v>1</v>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D341">
         <v>6.2</v>
@@ -11296,8 +11726,10 @@
       <c r="B342">
         <v>28</v>
       </c>
-      <c r="C342">
-        <v>2</v>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D342">
         <v>8.6</v>
@@ -11328,9 +11760,6 @@
       <c r="B343">
         <v>24</v>
       </c>
-      <c r="C343">
-        <v>1</v>
-      </c>
       <c r="D343">
         <v>9.1</v>
       </c>
@@ -11360,8 +11789,10 @@
       <c r="B344">
         <v>25</v>
       </c>
-      <c r="C344">
-        <v>2</v>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D344">
         <v>9.4</v>
@@ -11392,8 +11823,10 @@
       <c r="B345">
         <v>27</v>
       </c>
-      <c r="C345">
-        <v>1</v>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D345">
         <v>6.1</v>
@@ -11424,8 +11857,10 @@
       <c r="B346">
         <v>22</v>
       </c>
-      <c r="C346">
-        <v>1</v>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D346">
         <v>8.4</v>
@@ -11456,8 +11891,10 @@
       <c r="B347">
         <v>34</v>
       </c>
-      <c r="C347">
-        <v>1</v>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D347">
         <v>9.6</v>
@@ -11488,8 +11925,10 @@
       <c r="B348">
         <v>23</v>
       </c>
-      <c r="C348">
-        <v>2</v>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D348">
         <v>7.6</v>
@@ -11505,9 +11944,6 @@
       </c>
       <c r="H348">
         <v>8.199999999999999</v>
-      </c>
-      <c r="I348">
-        <v>1</v>
       </c>
       <c r="J348">
         <v>4.2</v>
@@ -11517,11 +11953,10 @@
       <c r="A349">
         <v>348</v>
       </c>
-      <c r="B349">
-        <v>25</v>
-      </c>
-      <c r="C349">
-        <v>2</v>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D349">
         <v>7.8</v>
@@ -11552,8 +11987,10 @@
       <c r="B350">
         <v>23</v>
       </c>
-      <c r="C350">
-        <v>2</v>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D350">
         <v>8</v>
@@ -11584,8 +12021,10 @@
       <c r="B351">
         <v>32</v>
       </c>
-      <c r="C351">
-        <v>2</v>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D351">
         <v>8.4</v>
@@ -11616,8 +12055,10 @@
       <c r="B352">
         <v>34</v>
       </c>
-      <c r="C352">
-        <v>1</v>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D352">
         <v>8.699999999999999</v>
@@ -11648,8 +12089,10 @@
       <c r="B353">
         <v>20</v>
       </c>
-      <c r="C353">
-        <v>1</v>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D353">
         <v>9.300000000000001</v>
@@ -11680,8 +12123,10 @@
       <c r="B354">
         <v>32</v>
       </c>
-      <c r="C354">
-        <v>2</v>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D354">
         <v>7.9</v>
@@ -11697,9 +12142,6 @@
       </c>
       <c r="H354">
         <v>3.4</v>
-      </c>
-      <c r="I354">
-        <v>2</v>
       </c>
       <c r="J354">
         <v>5.79</v>
@@ -11712,8 +12154,10 @@
       <c r="B355">
         <v>18</v>
       </c>
-      <c r="C355">
-        <v>2</v>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D355">
         <v>8.199999999999999</v>
@@ -11741,11 +12185,10 @@
       <c r="A356">
         <v>355</v>
       </c>
-      <c r="B356">
-        <v>22</v>
-      </c>
-      <c r="C356">
-        <v>1</v>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D356">
         <v>10.5</v>
@@ -11776,8 +12219,10 @@
       <c r="B357">
         <v>28</v>
       </c>
-      <c r="C357">
-        <v>2</v>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D357">
         <v>8.4</v>
@@ -11808,8 +12253,10 @@
       <c r="B358">
         <v>32</v>
       </c>
-      <c r="C358">
-        <v>2</v>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D358">
         <v>8.199999999999999</v>
@@ -11840,8 +12287,10 @@
       <c r="B359">
         <v>19</v>
       </c>
-      <c r="C359">
-        <v>1</v>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D359">
         <v>6.7</v>
@@ -11872,8 +12321,10 @@
       <c r="B360">
         <v>33</v>
       </c>
-      <c r="C360">
-        <v>2</v>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D360">
         <v>8</v>
@@ -11889,9 +12340,6 @@
       </c>
       <c r="H360">
         <v>1.5</v>
-      </c>
-      <c r="I360">
-        <v>0</v>
       </c>
       <c r="J360">
         <v>6.4</v>
@@ -11904,8 +12352,10 @@
       <c r="B361">
         <v>27</v>
       </c>
-      <c r="C361">
-        <v>2</v>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D361">
         <v>7.8</v>
@@ -11936,8 +12386,10 @@
       <c r="B362">
         <v>34</v>
       </c>
-      <c r="C362">
-        <v>2</v>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D362">
         <v>8</v>
@@ -11968,8 +12420,10 @@
       <c r="B363">
         <v>24</v>
       </c>
-      <c r="C363">
-        <v>2</v>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D363">
         <v>7.4</v>
@@ -12000,8 +12454,10 @@
       <c r="B364">
         <v>23</v>
       </c>
-      <c r="C364">
-        <v>1</v>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D364">
         <v>7.3</v>
@@ -12032,8 +12488,10 @@
       <c r="B365">
         <v>29</v>
       </c>
-      <c r="C365">
-        <v>2</v>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D365">
         <v>7.3</v>
@@ -12064,8 +12522,10 @@
       <c r="B366">
         <v>21</v>
       </c>
-      <c r="C366">
-        <v>1</v>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D366">
         <v>7.8</v>
@@ -12096,8 +12556,10 @@
       <c r="B367">
         <v>19</v>
       </c>
-      <c r="C367">
-        <v>1</v>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D367">
         <v>9.4</v>
@@ -12128,8 +12590,10 @@
       <c r="B368">
         <v>21</v>
       </c>
-      <c r="C368">
-        <v>1</v>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D368">
         <v>9</v>
@@ -12160,9 +12624,6 @@
       <c r="B369">
         <v>28</v>
       </c>
-      <c r="C369">
-        <v>1</v>
-      </c>
       <c r="D369">
         <v>7.6</v>
       </c>
@@ -12192,8 +12653,10 @@
       <c r="B370">
         <v>18</v>
       </c>
-      <c r="C370">
-        <v>1</v>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D370">
         <v>6.3</v>
@@ -12224,8 +12687,10 @@
       <c r="B371">
         <v>35</v>
       </c>
-      <c r="C371">
-        <v>2</v>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D371">
         <v>7.2</v>
@@ -12256,8 +12721,10 @@
       <c r="B372">
         <v>33</v>
       </c>
-      <c r="C372">
-        <v>1</v>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D372">
         <v>7.5</v>
@@ -12288,8 +12755,10 @@
       <c r="B373">
         <v>20</v>
       </c>
-      <c r="C373">
-        <v>1</v>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D373">
         <v>8.1</v>
@@ -12320,8 +12789,10 @@
       <c r="B374">
         <v>18</v>
       </c>
-      <c r="C374">
-        <v>1</v>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D374">
         <v>7.3</v>
@@ -12337,9 +12808,6 @@
       </c>
       <c r="H374">
         <v>3.8</v>
-      </c>
-      <c r="I374">
-        <v>2</v>
       </c>
       <c r="J374">
         <v>6.45</v>
@@ -12349,12 +12817,6 @@
       <c r="A375">
         <v>374</v>
       </c>
-      <c r="B375">
-        <v>19</v>
-      </c>
-      <c r="C375">
-        <v>1</v>
-      </c>
       <c r="D375">
         <v>10</v>
       </c>
@@ -12384,8 +12846,10 @@
       <c r="B376">
         <v>19</v>
       </c>
-      <c r="C376">
-        <v>2</v>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D376">
         <v>7.7</v>
@@ -12416,8 +12880,10 @@
       <c r="B377">
         <v>25</v>
       </c>
-      <c r="C377">
-        <v>1</v>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D377">
         <v>6.8</v>
@@ -12448,8 +12914,10 @@
       <c r="B378">
         <v>31</v>
       </c>
-      <c r="C378">
-        <v>1</v>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D378">
         <v>7.9</v>
@@ -12480,8 +12948,10 @@
       <c r="B379">
         <v>30</v>
       </c>
-      <c r="C379">
-        <v>1</v>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D379">
         <v>7</v>
@@ -12512,8 +12982,10 @@
       <c r="B380">
         <v>24</v>
       </c>
-      <c r="C380">
-        <v>2</v>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D380">
         <v>8.199999999999999</v>
@@ -12544,8 +13016,10 @@
       <c r="B381">
         <v>25</v>
       </c>
-      <c r="C381">
-        <v>1</v>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D381">
         <v>8.199999999999999</v>
@@ -12576,8 +13050,10 @@
       <c r="B382">
         <v>20</v>
       </c>
-      <c r="C382">
-        <v>1</v>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D382">
         <v>8.4</v>
@@ -12608,8 +13084,10 @@
       <c r="B383">
         <v>33</v>
       </c>
-      <c r="C383">
-        <v>1</v>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D383">
         <v>6.4</v>
@@ -12640,9 +13118,6 @@
       <c r="B384">
         <v>18</v>
       </c>
-      <c r="C384">
-        <v>1</v>
-      </c>
       <c r="D384">
         <v>8.199999999999999</v>
       </c>
@@ -12657,9 +13132,6 @@
       </c>
       <c r="H384">
         <v>4.4</v>
-      </c>
-      <c r="I384">
-        <v>1</v>
       </c>
       <c r="J384">
         <v>5.76</v>
@@ -12672,8 +13144,10 @@
       <c r="B385">
         <v>29</v>
       </c>
-      <c r="C385">
-        <v>2</v>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D385">
         <v>8.300000000000001</v>
@@ -12704,8 +13178,10 @@
       <c r="B386">
         <v>35</v>
       </c>
-      <c r="C386">
-        <v>2</v>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D386">
         <v>6.6</v>
@@ -12736,8 +13212,10 @@
       <c r="B387">
         <v>31</v>
       </c>
-      <c r="C387">
-        <v>1</v>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D387">
         <v>9</v>
@@ -12768,8 +13246,10 @@
       <c r="B388">
         <v>25</v>
       </c>
-      <c r="C388">
-        <v>2</v>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D388">
         <v>8.800000000000001</v>
@@ -12797,11 +13277,10 @@
       <c r="A389">
         <v>388</v>
       </c>
-      <c r="B389">
-        <v>22</v>
-      </c>
-      <c r="C389">
-        <v>2</v>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D389">
         <v>10.3</v>
@@ -12832,8 +13311,10 @@
       <c r="B390">
         <v>34</v>
       </c>
-      <c r="C390">
-        <v>1</v>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D390">
         <v>8.199999999999999</v>
@@ -12864,8 +13345,10 @@
       <c r="B391">
         <v>28</v>
       </c>
-      <c r="C391">
-        <v>1</v>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D391">
         <v>8</v>
@@ -12896,8 +13379,10 @@
       <c r="B392">
         <v>21</v>
       </c>
-      <c r="C392">
-        <v>1</v>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D392">
         <v>8.1</v>
@@ -12928,8 +13413,10 @@
       <c r="B393">
         <v>30</v>
       </c>
-      <c r="C393">
-        <v>1</v>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D393">
         <v>8.1</v>
@@ -12960,8 +13447,10 @@
       <c r="B394">
         <v>25</v>
       </c>
-      <c r="C394">
-        <v>2</v>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D394">
         <v>6.2</v>
@@ -12992,8 +13481,10 @@
       <c r="B395">
         <v>32</v>
       </c>
-      <c r="C395">
-        <v>1</v>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D395">
         <v>6.3</v>
@@ -13024,8 +13515,10 @@
       <c r="B396">
         <v>21</v>
       </c>
-      <c r="C396">
-        <v>1</v>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D396">
         <v>7.9</v>
@@ -13056,8 +13549,10 @@
       <c r="B397">
         <v>30</v>
       </c>
-      <c r="C397">
-        <v>2</v>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D397">
         <v>7.4</v>
@@ -13088,8 +13583,10 @@
       <c r="B398">
         <v>20</v>
       </c>
-      <c r="C398">
-        <v>1</v>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D398">
         <v>8.1</v>
@@ -13120,8 +13617,10 @@
       <c r="B399">
         <v>24</v>
       </c>
-      <c r="C399">
-        <v>1</v>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="D399">
         <v>5.9</v>
@@ -13149,11 +13648,10 @@
       <c r="A400">
         <v>399</v>
       </c>
-      <c r="B400">
-        <v>18</v>
-      </c>
-      <c r="C400">
-        <v>2</v>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D400">
         <v>6.5</v>
@@ -13184,8 +13682,10 @@
       <c r="B401">
         <v>23</v>
       </c>
-      <c r="C401">
-        <v>2</v>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="D401">
         <v>6.9</v>
